--- a/project2/Results/data.xlsx
+++ b/project2/Results/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\3. 2022_23\Summer Semester\Advanced Algorithms\project\project2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4F2CF-3D3F-49FB-BE0D-2ED971A2880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B4CE6-9A87-41FE-AE16-448E8D1941E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18193,7 +18193,7 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
-              <a:t>Insert Times</a:t>
+              <a:t>Search Times</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -56826,7 +56826,7 @@
   <dimension ref="A1:D981"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
